--- a/設計書_打刻侍/50_単体テスト/単体テスト仕様書_(S200)社員画面.xlsx
+++ b/設計書_打刻侍/50_単体テスト/単体テスト仕様書_(S200)社員画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_suzuki\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77FE58C-B652-4768-A697-7FE326A5999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823EF98C-6B1A-437B-BFA5-257CB88B532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{745FC034-C374-47E9-8C14-3AA6EA33CBC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>単体テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -172,18 +172,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>形式）hh：mm         例）9:05→9:15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2-1</t>
   </si>
   <si>
     <t>2-2</t>
-  </si>
-  <si>
-    <t>形式）hh：mm         例）18:05→18:00</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3-1</t>
@@ -221,36 +213,86 @@
     <t>「出勤」ボタンをクリックする</t>
   </si>
   <si>
-    <t>[打刻.打刻ID]が自動連番で登録される</t>
-    <rPh sb="4" eb="6">
-      <t>ダコク</t>
+    <t>usersMain.jspが再描画される</t>
+  </si>
+  <si>
+    <t>「出勤時刻を登録しました」のメッセージが出力される</t>
+  </si>
+  <si>
+    <t>「退勤時刻を登録しました」のメッセージが出力される</t>
+    <rPh sb="1" eb="3">
+      <t>タイキン</t>
     </rPh>
-    <rPh sb="10" eb="14">
-      <t>ジドウレンバン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「申請一覧」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>requestList.jspへ遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>attendanceStatus.jspへ遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usersMain.jspが再描画される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「退勤時刻は登録済みです」のエラーメッセージが出力される</t>
+    <rPh sb="1" eb="3">
+      <t>タイキン</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="3" eb="5">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「出勤時刻が登録されていません」のエラーメッセージが出力される</t>
+    <rPh sb="1" eb="3">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[打刻.利用者ID]にセッションに保存されている”利用者ID”が登録される</t>
-    <rPh sb="4" eb="7">
-      <t>リヨウシャ</t>
-    </rPh>
+    <t>「退勤」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「退勤」ボタンをクリックする　　　条件：[打刻,退勤打刻時刻] != null       </t>
     <rPh sb="17" eb="19">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
+      <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[打刻.日付]に"現在の日付"が登録される</t>
+    <t xml:space="preserve">「退勤」ボタンをクリックする　　　条件：[打刻.出勤打刻時刻] == null　 </t>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「出勤」ボタンをクリックする　　　条件：[打刻,出勤打刻時刻] != null       </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.日付]="現在の日付"</t>
     <rPh sb="4" eb="6">
       <t>ヒヅケ</t>
     </rPh>
@@ -260,192 +302,112 @@
     <rPh sb="12" eb="14">
       <t>ヒヅケ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.出勤打刻時刻]="現在時刻"</t>
+    <rPh sb="13" eb="15">
+      <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[打刻.出勤打刻時刻]に"現在時刻"が登録される</t>
+    <t>形式）hh：mm         例）9:05→9:15        ※現在時刻を１５分単位で補正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.補正出勤時刻]＝"補正出勤時刻"</t>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ホセイシュッキン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.利用者ID]="セッションに保存されている利用者ID”</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[打刻.打刻ID]="自動連番"</t>
+    <rPh sb="4" eb="6">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ジドウレンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>形式）hh：mm         例）18:05→18:00    ※現在時刻を１５分単位で補正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[打刻.補正退勤時刻]=”補正退勤時刻”  　　更新条件：[打刻.利用者ID]==利用者ID  &amp;&amp;  [打刻.日付]==日付           </t>
+    <rPh sb="4" eb="10">
+      <t>ホセイタイキンジコク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[打刻.退勤打刻時刻]="現在時刻"　　  　　更新条件：[打刻.利用者ID]==利用者ID  &amp;&amp;  [打刻.日付]==日付           </t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
     <rPh sb="13" eb="15">
       <t>ゲンザイ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>ジコク</t>
+      <t>トウロク</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[打刻.補正出勤時刻]に現在時刻を１５分単位で補正した"補正出勤時刻"が登録される</t>
-    <rPh sb="4" eb="6">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ゲンザイジコク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タンイ</t>
+    <t>「出勤時刻は登録済みです」のエラーメッセージが出力される</t>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
     </rPh>
     <rPh sb="23" eb="25">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ホセイシュッキン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>usersMain.jspが再描画される</t>
-  </si>
-  <si>
-    <t>「出勤時刻を登録しました」のメッセージが出力される</t>
-  </si>
-  <si>
-    <t>出勤時刻を登録後、再度「出勤」ボタンをクリックする（同日内）</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>トウロクゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「出勤時刻の登録に失敗しました」のエラーメッセージが出力される</t>
-    <rPh sb="26" eb="28">
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「退勤」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>[打刻.退勤打刻時刻]に"現在時刻"が登録される</t>
-    <rPh sb="1" eb="3">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[打刻.補正退勤時刻]に現在時刻を１５分単位で補正した”補正退勤時刻”が登録される</t>
-    <rPh sb="4" eb="10">
-      <t>ホセイタイキンジコク</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ホセイタイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「退勤時刻を登録しました」のメッセージが出力される</t>
-    <rPh sb="1" eb="3">
-      <t>タイキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>退勤時刻を更新後、再度「退勤」ボタンをクリックする（同日内）</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「出勤時刻が登録されていない、もしくは退勤登録済みです」のエラーメッセージが出力される</t>
-    <rPh sb="1" eb="3">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出勤時刻を登録していない状態で「退勤」ボタンをクリックする（同日内）</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「申請一覧」ボタンをクリックする</t>
-  </si>
-  <si>
     <t>「勤怠状況表」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>requestList.jspへ遷移する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>attendanceStatus.jspへ遷移する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -526,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -810,13 +772,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,10 +992,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -988,16 +1037,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,12 +1049,92 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1342,16 +1465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B7A4F-762B-45BB-B437-FD784306B29C}">
   <dimension ref="A1:EF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN32" sqref="AN32:BR32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:AM26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="2.75" style="22"/>
-    <col min="6" max="6" width="2.75" style="22" customWidth="1"/>
-    <col min="7" max="8" width="2.75" style="22"/>
-    <col min="35" max="39" width="2.75" customWidth="1"/>
+    <col min="5" max="8" width="3.125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="24" x14ac:dyDescent="0.4">
@@ -2059,126 +2179,126 @@
       <c r="EF5" s="1"/>
     </row>
     <row r="6" spans="1:136" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="61" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61" t="s">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="61"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="61"/>
-      <c r="BP6" s="61"/>
-      <c r="BQ6" s="61"/>
-      <c r="BR6" s="61"/>
-      <c r="BS6" s="61" t="s">
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="62"/>
+      <c r="BA6" s="62"/>
+      <c r="BB6" s="62"/>
+      <c r="BC6" s="62"/>
+      <c r="BD6" s="62"/>
+      <c r="BE6" s="62"/>
+      <c r="BF6" s="62"/>
+      <c r="BG6" s="62"/>
+      <c r="BH6" s="62"/>
+      <c r="BI6" s="62"/>
+      <c r="BJ6" s="62"/>
+      <c r="BK6" s="62"/>
+      <c r="BL6" s="62"/>
+      <c r="BM6" s="62"/>
+      <c r="BN6" s="62"/>
+      <c r="BO6" s="62"/>
+      <c r="BP6" s="62"/>
+      <c r="BQ6" s="62"/>
+      <c r="BR6" s="62"/>
+      <c r="BS6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BT6" s="61"/>
-      <c r="BU6" s="61"/>
-      <c r="BV6" s="61"/>
-      <c r="BW6" s="61"/>
-      <c r="BX6" s="61"/>
-      <c r="BY6" s="61"/>
-      <c r="BZ6" s="61"/>
-      <c r="CA6" s="61"/>
-      <c r="CB6" s="61"/>
-      <c r="CC6" s="61"/>
-      <c r="CD6" s="61" t="s">
+      <c r="BT6" s="62"/>
+      <c r="BU6" s="62"/>
+      <c r="BV6" s="62"/>
+      <c r="BW6" s="62"/>
+      <c r="BX6" s="62"/>
+      <c r="BY6" s="62"/>
+      <c r="BZ6" s="62"/>
+      <c r="CA6" s="62"/>
+      <c r="CB6" s="62"/>
+      <c r="CC6" s="62"/>
+      <c r="CD6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="CE6" s="61"/>
-      <c r="CF6" s="61"/>
-      <c r="CG6" s="61"/>
-      <c r="CH6" s="61"/>
-      <c r="CI6" s="61"/>
-      <c r="CJ6" s="61"/>
-      <c r="CK6" s="61"/>
-      <c r="CL6" s="61"/>
-      <c r="CM6" s="61"/>
-      <c r="CN6" s="61"/>
-      <c r="CO6" s="61"/>
-      <c r="CP6" s="61"/>
-      <c r="CQ6" s="61"/>
-      <c r="CR6" s="61"/>
-      <c r="CS6" s="61"/>
-      <c r="CT6" s="61"/>
-      <c r="CU6" s="61"/>
-      <c r="CV6" s="61"/>
-      <c r="CW6" s="61"/>
-      <c r="CX6" s="61"/>
-      <c r="CY6" s="61"/>
-      <c r="CZ6" s="61"/>
-      <c r="DA6" s="61"/>
-      <c r="DB6" s="61"/>
-      <c r="DC6" s="61"/>
-      <c r="DD6" s="61"/>
+      <c r="CE6" s="62"/>
+      <c r="CF6" s="62"/>
+      <c r="CG6" s="62"/>
+      <c r="CH6" s="62"/>
+      <c r="CI6" s="62"/>
+      <c r="CJ6" s="62"/>
+      <c r="CK6" s="62"/>
+      <c r="CL6" s="62"/>
+      <c r="CM6" s="62"/>
+      <c r="CN6" s="62"/>
+      <c r="CO6" s="62"/>
+      <c r="CP6" s="62"/>
+      <c r="CQ6" s="62"/>
+      <c r="CR6" s="62"/>
+      <c r="CS6" s="62"/>
+      <c r="CT6" s="62"/>
+      <c r="CU6" s="62"/>
+      <c r="CV6" s="62"/>
+      <c r="CW6" s="62"/>
+      <c r="CX6" s="62"/>
+      <c r="CY6" s="62"/>
+      <c r="CZ6" s="62"/>
+      <c r="DA6" s="62"/>
+      <c r="DB6" s="62"/>
+      <c r="DC6" s="62"/>
+      <c r="DD6" s="62"/>
       <c r="DE6" s="1"/>
       <c r="DF6" s="1"/>
       <c r="DG6" s="1"/>
@@ -2209,120 +2329,120 @@
       <c r="EF6" s="1"/>
     </row>
     <row r="7" spans="1:136" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
-      <c r="BP7" s="61"/>
-      <c r="BQ7" s="61"/>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="61" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="62"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="62"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="62"/>
+      <c r="BR7" s="62"/>
+      <c r="BS7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="BT7" s="61"/>
-      <c r="BU7" s="61"/>
-      <c r="BV7" s="61" t="s">
+      <c r="BT7" s="62"/>
+      <c r="BU7" s="62"/>
+      <c r="BV7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="BW7" s="61"/>
-      <c r="BX7" s="61"/>
-      <c r="BY7" s="61"/>
-      <c r="BZ7" s="61"/>
-      <c r="CA7" s="61"/>
-      <c r="CB7" s="61" t="s">
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="62"/>
+      <c r="BY7" s="62"/>
+      <c r="BZ7" s="62"/>
+      <c r="CA7" s="62"/>
+      <c r="CB7" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="CC7" s="61"/>
-      <c r="CD7" s="61"/>
-      <c r="CE7" s="61"/>
-      <c r="CF7" s="61"/>
-      <c r="CG7" s="61"/>
-      <c r="CH7" s="61"/>
-      <c r="CI7" s="61"/>
-      <c r="CJ7" s="61"/>
-      <c r="CK7" s="61"/>
-      <c r="CL7" s="61"/>
-      <c r="CM7" s="61"/>
-      <c r="CN7" s="61"/>
-      <c r="CO7" s="61"/>
-      <c r="CP7" s="61"/>
-      <c r="CQ7" s="61"/>
-      <c r="CR7" s="61"/>
-      <c r="CS7" s="61"/>
-      <c r="CT7" s="61"/>
-      <c r="CU7" s="61"/>
-      <c r="CV7" s="61"/>
-      <c r="CW7" s="61"/>
-      <c r="CX7" s="61"/>
-      <c r="CY7" s="61"/>
-      <c r="CZ7" s="61"/>
-      <c r="DA7" s="61"/>
-      <c r="DB7" s="61"/>
-      <c r="DC7" s="61"/>
-      <c r="DD7" s="61"/>
+      <c r="CC7" s="62"/>
+      <c r="CD7" s="62"/>
+      <c r="CE7" s="62"/>
+      <c r="CF7" s="62"/>
+      <c r="CG7" s="62"/>
+      <c r="CH7" s="62"/>
+      <c r="CI7" s="62"/>
+      <c r="CJ7" s="62"/>
+      <c r="CK7" s="62"/>
+      <c r="CL7" s="62"/>
+      <c r="CM7" s="62"/>
+      <c r="CN7" s="62"/>
+      <c r="CO7" s="62"/>
+      <c r="CP7" s="62"/>
+      <c r="CQ7" s="62"/>
+      <c r="CR7" s="62"/>
+      <c r="CS7" s="62"/>
+      <c r="CT7" s="62"/>
+      <c r="CU7" s="62"/>
+      <c r="CV7" s="62"/>
+      <c r="CW7" s="62"/>
+      <c r="CX7" s="62"/>
+      <c r="CY7" s="62"/>
+      <c r="CZ7" s="62"/>
+      <c r="DA7" s="62"/>
+      <c r="DB7" s="62"/>
+      <c r="DC7" s="62"/>
+      <c r="DD7" s="62"/>
       <c r="DE7" s="1"/>
       <c r="DF7" s="1"/>
       <c r="DG7" s="1"/>
@@ -2366,7 +2486,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -2399,7 +2519,7 @@
       <c r="AL8" s="24"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO8" s="24"/>
       <c r="AP8" s="24"/>
@@ -2543,7 +2663,7 @@
       <c r="AL9" s="24"/>
       <c r="AM9" s="24"/>
       <c r="AN9" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO9" s="24"/>
       <c r="AP9" s="24"/>
@@ -2658,7 +2778,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -2691,7 +2811,7 @@
       <c r="AL10" s="24"/>
       <c r="AM10" s="24"/>
       <c r="AN10" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO10" s="24"/>
       <c r="AP10" s="24"/>
@@ -2835,7 +2955,7 @@
       <c r="AL11" s="24"/>
       <c r="AM11" s="24"/>
       <c r="AN11" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AO11" s="24"/>
       <c r="AP11" s="24"/>
@@ -2950,7 +3070,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -2983,7 +3103,7 @@
       <c r="AL12" s="24"/>
       <c r="AM12" s="24"/>
       <c r="AN12" s="24" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AO12" s="24"/>
       <c r="AP12" s="24"/>
@@ -3127,7 +3247,7 @@
       <c r="AL13" s="25"/>
       <c r="AM13" s="25"/>
       <c r="AN13" s="24" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AO13" s="24"/>
       <c r="AP13" s="24"/>
@@ -3271,7 +3391,7 @@
       <c r="AL14" s="24"/>
       <c r="AM14" s="24"/>
       <c r="AN14" s="24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AO14" s="24"/>
       <c r="AP14" s="24"/>
@@ -3415,7 +3535,7 @@
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
       <c r="AN15" s="24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AO15" s="24"/>
       <c r="AP15" s="24"/>
@@ -3559,7 +3679,7 @@
       <c r="AL16" s="60"/>
       <c r="AM16" s="60"/>
       <c r="AN16" s="24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AO16" s="24"/>
       <c r="AP16" s="24"/>
@@ -3603,7 +3723,7 @@
       <c r="CB16" s="24"/>
       <c r="CC16" s="24"/>
       <c r="CD16" s="24" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="CE16" s="24"/>
       <c r="CF16" s="24"/>
@@ -3673,39 +3793,39 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
       <c r="AN17" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AO17" s="24"/>
       <c r="AP17" s="24"/>
@@ -3817,39 +3937,39 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
       <c r="AN18" s="24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AO18" s="24"/>
       <c r="AP18" s="24"/>
@@ -3956,13 +4076,13 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -3995,7 +4115,7 @@
       <c r="AL19" s="29"/>
       <c r="AM19" s="26"/>
       <c r="AN19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO19" s="29"/>
       <c r="AP19" s="29"/>
@@ -4102,7 +4222,7 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -4139,7 +4259,7 @@
       <c r="AL20" s="29"/>
       <c r="AM20" s="26"/>
       <c r="AN20" s="28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AO20" s="29"/>
       <c r="AP20" s="29"/>
@@ -4239,114 +4359,114 @@
       <c r="EF20" s="12"/>
     </row>
     <row r="21" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="40"/>
-      <c r="BD21" s="40"/>
-      <c r="BE21" s="40"/>
-      <c r="BF21" s="40"/>
-      <c r="BG21" s="40"/>
-      <c r="BH21" s="40"/>
-      <c r="BI21" s="40"/>
-      <c r="BJ21" s="40"/>
-      <c r="BK21" s="40"/>
-      <c r="BL21" s="40"/>
-      <c r="BM21" s="40"/>
-      <c r="BN21" s="40"/>
-      <c r="BO21" s="40"/>
-      <c r="BP21" s="40"/>
-      <c r="BQ21" s="40"/>
-      <c r="BR21" s="45"/>
-      <c r="BS21" s="24"/>
-      <c r="BT21" s="24"/>
-      <c r="BU21" s="24"/>
-      <c r="BV21" s="24"/>
-      <c r="BW21" s="24"/>
-      <c r="BX21" s="24"/>
-      <c r="BY21" s="24"/>
-      <c r="BZ21" s="24"/>
-      <c r="CA21" s="24"/>
-      <c r="CB21" s="24"/>
-      <c r="CC21" s="24"/>
-      <c r="CD21" s="24"/>
-      <c r="CE21" s="24"/>
-      <c r="CF21" s="24"/>
-      <c r="CG21" s="24"/>
-      <c r="CH21" s="24"/>
-      <c r="CI21" s="24"/>
-      <c r="CJ21" s="24"/>
-      <c r="CK21" s="24"/>
-      <c r="CL21" s="24"/>
-      <c r="CM21" s="24"/>
-      <c r="CN21" s="24"/>
-      <c r="CO21" s="24"/>
-      <c r="CP21" s="24"/>
-      <c r="CQ21" s="24"/>
-      <c r="CR21" s="24"/>
-      <c r="CS21" s="24"/>
-      <c r="CT21" s="24"/>
-      <c r="CU21" s="24"/>
-      <c r="CV21" s="24"/>
-      <c r="CW21" s="24"/>
-      <c r="CX21" s="24"/>
-      <c r="CY21" s="24"/>
-      <c r="CZ21" s="24"/>
-      <c r="DA21" s="24"/>
-      <c r="DB21" s="24"/>
-      <c r="DC21" s="24"/>
-      <c r="DD21" s="24"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="49"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="47"/>
+      <c r="AZ21" s="47"/>
+      <c r="BA21" s="47"/>
+      <c r="BB21" s="47"/>
+      <c r="BC21" s="47"/>
+      <c r="BD21" s="47"/>
+      <c r="BE21" s="47"/>
+      <c r="BF21" s="47"/>
+      <c r="BG21" s="47"/>
+      <c r="BH21" s="47"/>
+      <c r="BI21" s="47"/>
+      <c r="BJ21" s="47"/>
+      <c r="BK21" s="47"/>
+      <c r="BL21" s="47"/>
+      <c r="BM21" s="47"/>
+      <c r="BN21" s="47"/>
+      <c r="BO21" s="47"/>
+      <c r="BP21" s="47"/>
+      <c r="BQ21" s="47"/>
+      <c r="BR21" s="48"/>
+      <c r="BS21" s="45"/>
+      <c r="BT21" s="45"/>
+      <c r="BU21" s="45"/>
+      <c r="BV21" s="45"/>
+      <c r="BW21" s="45"/>
+      <c r="BX21" s="45"/>
+      <c r="BY21" s="45"/>
+      <c r="BZ21" s="45"/>
+      <c r="CA21" s="45"/>
+      <c r="CB21" s="45"/>
+      <c r="CC21" s="45"/>
+      <c r="CD21" s="45"/>
+      <c r="CE21" s="45"/>
+      <c r="CF21" s="45"/>
+      <c r="CG21" s="45"/>
+      <c r="CH21" s="45"/>
+      <c r="CI21" s="45"/>
+      <c r="CJ21" s="45"/>
+      <c r="CK21" s="45"/>
+      <c r="CL21" s="45"/>
+      <c r="CM21" s="45"/>
+      <c r="CN21" s="45"/>
+      <c r="CO21" s="45"/>
+      <c r="CP21" s="45"/>
+      <c r="CQ21" s="45"/>
+      <c r="CR21" s="45"/>
+      <c r="CS21" s="45"/>
+      <c r="CT21" s="45"/>
+      <c r="CU21" s="45"/>
+      <c r="CV21" s="45"/>
+      <c r="CW21" s="45"/>
+      <c r="CX21" s="45"/>
+      <c r="CY21" s="45"/>
+      <c r="CZ21" s="45"/>
+      <c r="DA21" s="45"/>
+      <c r="DB21" s="45"/>
+      <c r="DC21" s="45"/>
+      <c r="DD21" s="45"/>
       <c r="DE21" s="12"/>
       <c r="DF21" s="12"/>
       <c r="DG21" s="12"/>
@@ -4384,13 +4504,13 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -4423,7 +4543,7 @@
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AO22" s="24"/>
       <c r="AP22" s="24"/>
@@ -4530,7 +4650,7 @@
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
@@ -4567,7 +4687,7 @@
       <c r="AL23" s="24"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AO23" s="24"/>
       <c r="AP23" s="24"/>
@@ -4611,7 +4731,7 @@
       <c r="CB23" s="24"/>
       <c r="CC23" s="24"/>
       <c r="CD23" s="24" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="CE23" s="24"/>
       <c r="CF23" s="24"/>
@@ -4676,7 +4796,7 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
@@ -4713,7 +4833,7 @@
       <c r="AL24" s="24"/>
       <c r="AM24" s="24"/>
       <c r="AN24" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AO24" s="24"/>
       <c r="AP24" s="24"/>
@@ -4820,7 +4940,7 @@
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
@@ -4857,7 +4977,7 @@
       <c r="AL25" s="29"/>
       <c r="AM25" s="26"/>
       <c r="AN25" s="28" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AO25" s="29"/>
       <c r="AP25" s="29"/>
@@ -4964,46 +5084,46 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="28" t="s">
-        <v>46</v>
+      <c r="H26" s="74"/>
+      <c r="I26" s="57" t="s">
+        <v>42</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="26"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="58"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="59"/>
       <c r="AN26" s="28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AO26" s="29"/>
       <c r="AP26" s="29"/>
@@ -5035,44 +5155,44 @@
       <c r="BP26" s="29"/>
       <c r="BQ26" s="29"/>
       <c r="BR26" s="26"/>
-      <c r="BS26" s="24"/>
-      <c r="BT26" s="24"/>
-      <c r="BU26" s="24"/>
-      <c r="BV26" s="24"/>
-      <c r="BW26" s="24"/>
-      <c r="BX26" s="24"/>
-      <c r="BY26" s="24"/>
-      <c r="BZ26" s="24"/>
-      <c r="CA26" s="24"/>
-      <c r="CB26" s="24"/>
-      <c r="CC26" s="24"/>
-      <c r="CD26" s="24"/>
-      <c r="CE26" s="24"/>
-      <c r="CF26" s="24"/>
-      <c r="CG26" s="24"/>
-      <c r="CH26" s="24"/>
-      <c r="CI26" s="24"/>
-      <c r="CJ26" s="24"/>
-      <c r="CK26" s="24"/>
-      <c r="CL26" s="24"/>
-      <c r="CM26" s="24"/>
-      <c r="CN26" s="24"/>
-      <c r="CO26" s="24"/>
-      <c r="CP26" s="24"/>
-      <c r="CQ26" s="24"/>
-      <c r="CR26" s="24"/>
-      <c r="CS26" s="24"/>
-      <c r="CT26" s="24"/>
-      <c r="CU26" s="24"/>
-      <c r="CV26" s="24"/>
-      <c r="CW26" s="24"/>
-      <c r="CX26" s="24"/>
-      <c r="CY26" s="24"/>
-      <c r="CZ26" s="24"/>
-      <c r="DA26" s="24"/>
-      <c r="DB26" s="24"/>
-      <c r="DC26" s="24"/>
-      <c r="DD26" s="24"/>
+      <c r="BS26" s="67"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="44"/>
+      <c r="BV26" s="42"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="43"/>
+      <c r="BZ26" s="43"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="42"/>
+      <c r="CE26" s="43"/>
+      <c r="CF26" s="43"/>
+      <c r="CG26" s="43"/>
+      <c r="CH26" s="43"/>
+      <c r="CI26" s="43"/>
+      <c r="CJ26" s="43"/>
+      <c r="CK26" s="43"/>
+      <c r="CL26" s="43"/>
+      <c r="CM26" s="43"/>
+      <c r="CN26" s="43"/>
+      <c r="CO26" s="43"/>
+      <c r="CP26" s="43"/>
+      <c r="CQ26" s="43"/>
+      <c r="CR26" s="43"/>
+      <c r="CS26" s="43"/>
+      <c r="CT26" s="43"/>
+      <c r="CU26" s="43"/>
+      <c r="CV26" s="43"/>
+      <c r="CW26" s="43"/>
+      <c r="CX26" s="43"/>
+      <c r="CY26" s="43"/>
+      <c r="CZ26" s="43"/>
+      <c r="DA26" s="43"/>
+      <c r="DB26" s="43"/>
+      <c r="DC26" s="43"/>
+      <c r="DD26" s="44"/>
       <c r="DE26" s="12"/>
       <c r="DF26" s="12"/>
       <c r="DG26" s="12"/>
@@ -5110,46 +5230,46 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="54" t="s">
-        <v>48</v>
+      <c r="I27" s="68" t="s">
+        <v>41</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="26"/>
       <c r="AN27" s="28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
@@ -5180,45 +5300,45 @@
       <c r="BO27" s="29"/>
       <c r="BP27" s="29"/>
       <c r="BQ27" s="29"/>
-      <c r="BR27" s="26"/>
-      <c r="BS27" s="24"/>
-      <c r="BT27" s="24"/>
-      <c r="BU27" s="24"/>
-      <c r="BV27" s="24"/>
-      <c r="BW27" s="24"/>
-      <c r="BX27" s="24"/>
-      <c r="BY27" s="24"/>
-      <c r="BZ27" s="24"/>
-      <c r="CA27" s="24"/>
-      <c r="CB27" s="24"/>
-      <c r="CC27" s="24"/>
-      <c r="CD27" s="24"/>
-      <c r="CE27" s="24"/>
-      <c r="CF27" s="24"/>
-      <c r="CG27" s="24"/>
-      <c r="CH27" s="24"/>
-      <c r="CI27" s="24"/>
-      <c r="CJ27" s="24"/>
-      <c r="CK27" s="24"/>
-      <c r="CL27" s="24"/>
-      <c r="CM27" s="24"/>
-      <c r="CN27" s="24"/>
-      <c r="CO27" s="24"/>
-      <c r="CP27" s="24"/>
-      <c r="CQ27" s="24"/>
-      <c r="CR27" s="24"/>
-      <c r="CS27" s="24"/>
-      <c r="CT27" s="24"/>
-      <c r="CU27" s="24"/>
-      <c r="CV27" s="24"/>
-      <c r="CW27" s="24"/>
-      <c r="CX27" s="24"/>
-      <c r="CY27" s="24"/>
-      <c r="CZ27" s="24"/>
-      <c r="DA27" s="24"/>
-      <c r="DB27" s="24"/>
-      <c r="DC27" s="24"/>
-      <c r="DD27" s="24"/>
+      <c r="BR27" s="69"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="43"/>
+      <c r="BU27" s="44"/>
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="43"/>
+      <c r="BX27" s="43"/>
+      <c r="BY27" s="43"/>
+      <c r="BZ27" s="43"/>
+      <c r="CA27" s="44"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="44"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="43"/>
+      <c r="CF27" s="43"/>
+      <c r="CG27" s="43"/>
+      <c r="CH27" s="43"/>
+      <c r="CI27" s="43"/>
+      <c r="CJ27" s="43"/>
+      <c r="CK27" s="43"/>
+      <c r="CL27" s="43"/>
+      <c r="CM27" s="43"/>
+      <c r="CN27" s="43"/>
+      <c r="CO27" s="43"/>
+      <c r="CP27" s="43"/>
+      <c r="CQ27" s="43"/>
+      <c r="CR27" s="43"/>
+      <c r="CS27" s="43"/>
+      <c r="CT27" s="43"/>
+      <c r="CU27" s="43"/>
+      <c r="CV27" s="43"/>
+      <c r="CW27" s="43"/>
+      <c r="CX27" s="43"/>
+      <c r="CY27" s="43"/>
+      <c r="CZ27" s="43"/>
+      <c r="DA27" s="43"/>
+      <c r="DB27" s="43"/>
+      <c r="DC27" s="43"/>
+      <c r="DD27" s="44"/>
       <c r="DE27" s="12"/>
       <c r="DF27" s="12"/>
       <c r="DG27" s="12"/>
@@ -5249,114 +5369,114 @@
       <c r="EF27" s="12"/>
     </row>
     <row r="28" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="55"/>
-      <c r="AP28" s="55"/>
-      <c r="AQ28" s="55"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="55"/>
-      <c r="AU28" s="55"/>
-      <c r="AV28" s="55"/>
-      <c r="AW28" s="55"/>
-      <c r="AX28" s="55"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
-      <c r="BD28" s="55"/>
-      <c r="BE28" s="55"/>
-      <c r="BF28" s="55"/>
-      <c r="BG28" s="55"/>
-      <c r="BH28" s="55"/>
-      <c r="BI28" s="55"/>
-      <c r="BJ28" s="55"/>
-      <c r="BK28" s="55"/>
-      <c r="BL28" s="55"/>
-      <c r="BM28" s="55"/>
-      <c r="BN28" s="55"/>
-      <c r="BO28" s="55"/>
-      <c r="BP28" s="55"/>
-      <c r="BQ28" s="55"/>
-      <c r="BR28" s="56"/>
-      <c r="BS28" s="48"/>
-      <c r="BT28" s="48"/>
-      <c r="BU28" s="48"/>
-      <c r="BV28" s="48"/>
-      <c r="BW28" s="48"/>
-      <c r="BX28" s="48"/>
-      <c r="BY28" s="48"/>
-      <c r="BZ28" s="48"/>
-      <c r="CA28" s="48"/>
-      <c r="CB28" s="48"/>
-      <c r="CC28" s="48"/>
-      <c r="CD28" s="48"/>
-      <c r="CE28" s="48"/>
-      <c r="CF28" s="48"/>
-      <c r="CG28" s="48"/>
-      <c r="CH28" s="48"/>
-      <c r="CI28" s="48"/>
-      <c r="CJ28" s="48"/>
-      <c r="CK28" s="48"/>
-      <c r="CL28" s="48"/>
-      <c r="CM28" s="48"/>
-      <c r="CN28" s="48"/>
-      <c r="CO28" s="48"/>
-      <c r="CP28" s="48"/>
-      <c r="CQ28" s="48"/>
-      <c r="CR28" s="48"/>
-      <c r="CS28" s="48"/>
-      <c r="CT28" s="48"/>
-      <c r="CU28" s="48"/>
-      <c r="CV28" s="48"/>
-      <c r="CW28" s="48"/>
-      <c r="CX28" s="48"/>
-      <c r="CY28" s="48"/>
-      <c r="CZ28" s="48"/>
-      <c r="DA28" s="48"/>
-      <c r="DB28" s="48"/>
-      <c r="DC28" s="48"/>
-      <c r="DD28" s="48"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="88"/>
+      <c r="AN28" s="86"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87"/>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
+      <c r="BD28" s="87"/>
+      <c r="BE28" s="87"/>
+      <c r="BF28" s="87"/>
+      <c r="BG28" s="87"/>
+      <c r="BH28" s="87"/>
+      <c r="BI28" s="87"/>
+      <c r="BJ28" s="87"/>
+      <c r="BK28" s="87"/>
+      <c r="BL28" s="87"/>
+      <c r="BM28" s="87"/>
+      <c r="BN28" s="87"/>
+      <c r="BO28" s="87"/>
+      <c r="BP28" s="87"/>
+      <c r="BQ28" s="87"/>
+      <c r="BR28" s="88"/>
+      <c r="BS28" s="80"/>
+      <c r="BT28" s="81"/>
+      <c r="BU28" s="82"/>
+      <c r="BV28" s="80"/>
+      <c r="BW28" s="81"/>
+      <c r="BX28" s="81"/>
+      <c r="BY28" s="81"/>
+      <c r="BZ28" s="81"/>
+      <c r="CA28" s="82"/>
+      <c r="CB28" s="80"/>
+      <c r="CC28" s="82"/>
+      <c r="CD28" s="80"/>
+      <c r="CE28" s="81"/>
+      <c r="CF28" s="81"/>
+      <c r="CG28" s="81"/>
+      <c r="CH28" s="81"/>
+      <c r="CI28" s="81"/>
+      <c r="CJ28" s="81"/>
+      <c r="CK28" s="81"/>
+      <c r="CL28" s="81"/>
+      <c r="CM28" s="81"/>
+      <c r="CN28" s="81"/>
+      <c r="CO28" s="81"/>
+      <c r="CP28" s="81"/>
+      <c r="CQ28" s="81"/>
+      <c r="CR28" s="81"/>
+      <c r="CS28" s="81"/>
+      <c r="CT28" s="81"/>
+      <c r="CU28" s="81"/>
+      <c r="CV28" s="81"/>
+      <c r="CW28" s="81"/>
+      <c r="CX28" s="81"/>
+      <c r="CY28" s="81"/>
+      <c r="CZ28" s="81"/>
+      <c r="DA28" s="81"/>
+      <c r="DB28" s="81"/>
+      <c r="DC28" s="81"/>
+      <c r="DD28" s="82"/>
       <c r="DE28" s="12"/>
       <c r="DF28" s="12"/>
       <c r="DG28" s="12"/>
@@ -5393,116 +5513,116 @@
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="23" t="s">
-        <v>25</v>
+      <c r="E29" s="30" t="s">
+        <v>23</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24" t="s">
-        <v>49</v>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="39" t="s">
+        <v>34</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24" t="s">
-        <v>51</v>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="39" t="s">
+        <v>35</v>
       </c>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="24"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="24"/>
-      <c r="AY29" s="24"/>
-      <c r="AZ29" s="24"/>
-      <c r="BA29" s="24"/>
-      <c r="BB29" s="24"/>
-      <c r="BC29" s="24"/>
-      <c r="BD29" s="24"/>
-      <c r="BE29" s="24"/>
-      <c r="BF29" s="24"/>
-      <c r="BG29" s="24"/>
-      <c r="BH29" s="24"/>
-      <c r="BI29" s="24"/>
-      <c r="BJ29" s="24"/>
-      <c r="BK29" s="24"/>
-      <c r="BL29" s="24"/>
-      <c r="BM29" s="24"/>
-      <c r="BN29" s="24"/>
-      <c r="BO29" s="24"/>
-      <c r="BP29" s="24"/>
-      <c r="BQ29" s="24"/>
-      <c r="BR29" s="24"/>
-      <c r="BS29" s="27"/>
-      <c r="BT29" s="27"/>
-      <c r="BU29" s="27"/>
-      <c r="BV29" s="27"/>
-      <c r="BW29" s="27"/>
-      <c r="BX29" s="27"/>
-      <c r="BY29" s="27"/>
-      <c r="BZ29" s="27"/>
-      <c r="CA29" s="27"/>
-      <c r="CB29" s="27"/>
-      <c r="CC29" s="27"/>
-      <c r="CD29" s="27"/>
-      <c r="CE29" s="27"/>
-      <c r="CF29" s="27"/>
-      <c r="CG29" s="27"/>
-      <c r="CH29" s="27"/>
-      <c r="CI29" s="27"/>
-      <c r="CJ29" s="27"/>
-      <c r="CK29" s="27"/>
-      <c r="CL29" s="27"/>
-      <c r="CM29" s="27"/>
-      <c r="CN29" s="27"/>
-      <c r="CO29" s="27"/>
-      <c r="CP29" s="27"/>
-      <c r="CQ29" s="27"/>
-      <c r="CR29" s="27"/>
-      <c r="CS29" s="27"/>
-      <c r="CT29" s="27"/>
-      <c r="CU29" s="27"/>
-      <c r="CV29" s="27"/>
-      <c r="CW29" s="27"/>
-      <c r="CX29" s="27"/>
-      <c r="CY29" s="27"/>
-      <c r="CZ29" s="27"/>
-      <c r="DA29" s="27"/>
-      <c r="DB29" s="27"/>
-      <c r="DC29" s="27"/>
-      <c r="DD29" s="27"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="40"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="40"/>
+      <c r="BD29" s="40"/>
+      <c r="BE29" s="40"/>
+      <c r="BF29" s="40"/>
+      <c r="BG29" s="40"/>
+      <c r="BH29" s="40"/>
+      <c r="BI29" s="40"/>
+      <c r="BJ29" s="40"/>
+      <c r="BK29" s="40"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="40"/>
+      <c r="BN29" s="40"/>
+      <c r="BO29" s="40"/>
+      <c r="BP29" s="40"/>
+      <c r="BQ29" s="40"/>
+      <c r="BR29" s="76"/>
+      <c r="BS29" s="28"/>
+      <c r="BT29" s="29"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="28"/>
+      <c r="BW29" s="29"/>
+      <c r="BX29" s="29"/>
+      <c r="BY29" s="29"/>
+      <c r="BZ29" s="29"/>
+      <c r="CA29" s="26"/>
+      <c r="CB29" s="28"/>
+      <c r="CC29" s="26"/>
+      <c r="CD29" s="28"/>
+      <c r="CE29" s="29"/>
+      <c r="CF29" s="29"/>
+      <c r="CG29" s="29"/>
+      <c r="CH29" s="29"/>
+      <c r="CI29" s="29"/>
+      <c r="CJ29" s="29"/>
+      <c r="CK29" s="29"/>
+      <c r="CL29" s="29"/>
+      <c r="CM29" s="29"/>
+      <c r="CN29" s="29"/>
+      <c r="CO29" s="29"/>
+      <c r="CP29" s="29"/>
+      <c r="CQ29" s="29"/>
+      <c r="CR29" s="29"/>
+      <c r="CS29" s="29"/>
+      <c r="CT29" s="29"/>
+      <c r="CU29" s="29"/>
+      <c r="CV29" s="29"/>
+      <c r="CW29" s="29"/>
+      <c r="CX29" s="29"/>
+      <c r="CY29" s="29"/>
+      <c r="CZ29" s="29"/>
+      <c r="DA29" s="29"/>
+      <c r="DB29" s="29"/>
+      <c r="DC29" s="29"/>
+      <c r="DD29" s="26"/>
       <c r="DE29" s="12"/>
       <c r="DF29" s="12"/>
       <c r="DG29" s="12"/>
@@ -5533,122 +5653,122 @@
       <c r="EF29" s="12"/>
     </row>
     <row r="30" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="42">
+      <c r="A30" s="70">
         <v>21</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="30" t="s">
-        <v>26</v>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72" t="s">
+        <v>24</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="24" t="s">
-        <v>50</v>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="42" t="s">
+        <v>54</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24" t="s">
-        <v>52</v>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="42" t="s">
+        <v>36</v>
       </c>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="24"/>
-      <c r="AX30" s="24"/>
-      <c r="AY30" s="24"/>
-      <c r="AZ30" s="24"/>
-      <c r="BA30" s="24"/>
-      <c r="BB30" s="24"/>
-      <c r="BC30" s="24"/>
-      <c r="BD30" s="24"/>
-      <c r="BE30" s="24"/>
-      <c r="BF30" s="24"/>
-      <c r="BG30" s="24"/>
-      <c r="BH30" s="24"/>
-      <c r="BI30" s="24"/>
-      <c r="BJ30" s="24"/>
-      <c r="BK30" s="24"/>
-      <c r="BL30" s="24"/>
-      <c r="BM30" s="24"/>
-      <c r="BN30" s="24"/>
-      <c r="BO30" s="24"/>
-      <c r="BP30" s="24"/>
-      <c r="BQ30" s="24"/>
-      <c r="BR30" s="24"/>
-      <c r="BS30" s="26"/>
-      <c r="BT30" s="27"/>
-      <c r="BU30" s="27"/>
-      <c r="BV30" s="27"/>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="27"/>
-      <c r="BY30" s="27"/>
-      <c r="BZ30" s="27"/>
-      <c r="CA30" s="27"/>
-      <c r="CB30" s="27"/>
-      <c r="CC30" s="27"/>
-      <c r="CD30" s="27"/>
-      <c r="CE30" s="27"/>
-      <c r="CF30" s="27"/>
-      <c r="CG30" s="27"/>
-      <c r="CH30" s="27"/>
-      <c r="CI30" s="27"/>
-      <c r="CJ30" s="27"/>
-      <c r="CK30" s="27"/>
-      <c r="CL30" s="27"/>
-      <c r="CM30" s="27"/>
-      <c r="CN30" s="27"/>
-      <c r="CO30" s="27"/>
-      <c r="CP30" s="27"/>
-      <c r="CQ30" s="27"/>
-      <c r="CR30" s="27"/>
-      <c r="CS30" s="27"/>
-      <c r="CT30" s="27"/>
-      <c r="CU30" s="27"/>
-      <c r="CV30" s="27"/>
-      <c r="CW30" s="27"/>
-      <c r="CX30" s="27"/>
-      <c r="CY30" s="27"/>
-      <c r="CZ30" s="27"/>
-      <c r="DA30" s="27"/>
-      <c r="DB30" s="27"/>
-      <c r="DC30" s="27"/>
-      <c r="DD30" s="27"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="43"/>
+      <c r="BD30" s="43"/>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="43"/>
+      <c r="BG30" s="43"/>
+      <c r="BH30" s="43"/>
+      <c r="BI30" s="43"/>
+      <c r="BJ30" s="43"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="43"/>
+      <c r="BM30" s="43"/>
+      <c r="BN30" s="43"/>
+      <c r="BO30" s="43"/>
+      <c r="BP30" s="43"/>
+      <c r="BQ30" s="43"/>
+      <c r="BR30" s="44"/>
+      <c r="BS30" s="68"/>
+      <c r="BT30" s="29"/>
+      <c r="BU30" s="26"/>
+      <c r="BV30" s="28"/>
+      <c r="BW30" s="29"/>
+      <c r="BX30" s="29"/>
+      <c r="BY30" s="29"/>
+      <c r="BZ30" s="29"/>
+      <c r="CA30" s="26"/>
+      <c r="CB30" s="28"/>
+      <c r="CC30" s="26"/>
+      <c r="CD30" s="28"/>
+      <c r="CE30" s="29"/>
+      <c r="CF30" s="29"/>
+      <c r="CG30" s="29"/>
+      <c r="CH30" s="29"/>
+      <c r="CI30" s="29"/>
+      <c r="CJ30" s="29"/>
+      <c r="CK30" s="29"/>
+      <c r="CL30" s="29"/>
+      <c r="CM30" s="29"/>
+      <c r="CN30" s="29"/>
+      <c r="CO30" s="29"/>
+      <c r="CP30" s="29"/>
+      <c r="CQ30" s="29"/>
+      <c r="CR30" s="29"/>
+      <c r="CS30" s="29"/>
+      <c r="CT30" s="29"/>
+      <c r="CU30" s="29"/>
+      <c r="CV30" s="29"/>
+      <c r="CW30" s="29"/>
+      <c r="CX30" s="29"/>
+      <c r="CY30" s="29"/>
+      <c r="CZ30" s="29"/>
+      <c r="DA30" s="29"/>
+      <c r="DB30" s="29"/>
+      <c r="DC30" s="29"/>
+      <c r="DD30" s="26"/>
       <c r="DE30" s="12"/>
       <c r="DF30" s="12"/>
       <c r="DG30" s="12"/>
@@ -5686,107 +5806,107 @@
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="24"/>
-      <c r="AY31" s="24"/>
-      <c r="AZ31" s="24"/>
-      <c r="BA31" s="24"/>
-      <c r="BB31" s="24"/>
-      <c r="BC31" s="24"/>
-      <c r="BD31" s="24"/>
-      <c r="BE31" s="24"/>
-      <c r="BF31" s="24"/>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="24"/>
-      <c r="BJ31" s="24"/>
-      <c r="BK31" s="24"/>
-      <c r="BL31" s="24"/>
-      <c r="BM31" s="24"/>
-      <c r="BN31" s="24"/>
-      <c r="BO31" s="24"/>
-      <c r="BP31" s="24"/>
-      <c r="BQ31" s="24"/>
-      <c r="BR31" s="24"/>
-      <c r="BS31" s="26"/>
-      <c r="BT31" s="27"/>
-      <c r="BU31" s="27"/>
-      <c r="BV31" s="27"/>
-      <c r="BW31" s="27"/>
-      <c r="BX31" s="27"/>
-      <c r="BY31" s="27"/>
-      <c r="BZ31" s="27"/>
-      <c r="CA31" s="27"/>
-      <c r="CB31" s="27"/>
-      <c r="CC31" s="27"/>
-      <c r="CD31" s="27"/>
-      <c r="CE31" s="27"/>
-      <c r="CF31" s="27"/>
-      <c r="CG31" s="27"/>
-      <c r="CH31" s="27"/>
-      <c r="CI31" s="27"/>
-      <c r="CJ31" s="27"/>
-      <c r="CK31" s="27"/>
-      <c r="CL31" s="27"/>
-      <c r="CM31" s="27"/>
-      <c r="CN31" s="27"/>
-      <c r="CO31" s="27"/>
-      <c r="CP31" s="27"/>
-      <c r="CQ31" s="27"/>
-      <c r="CR31" s="27"/>
-      <c r="CS31" s="27"/>
-      <c r="CT31" s="27"/>
-      <c r="CU31" s="27"/>
-      <c r="CV31" s="27"/>
-      <c r="CW31" s="27"/>
-      <c r="CX31" s="27"/>
-      <c r="CY31" s="27"/>
-      <c r="CZ31" s="27"/>
-      <c r="DA31" s="27"/>
-      <c r="DB31" s="27"/>
-      <c r="DC31" s="27"/>
-      <c r="DD31" s="27"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="43"/>
+      <c r="BE31" s="43"/>
+      <c r="BF31" s="43"/>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="43"/>
+      <c r="BI31" s="43"/>
+      <c r="BJ31" s="43"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="43"/>
+      <c r="BM31" s="43"/>
+      <c r="BN31" s="43"/>
+      <c r="BO31" s="43"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="44"/>
+      <c r="BS31" s="68"/>
+      <c r="BT31" s="29"/>
+      <c r="BU31" s="26"/>
+      <c r="BV31" s="28"/>
+      <c r="BW31" s="29"/>
+      <c r="BX31" s="29"/>
+      <c r="BY31" s="29"/>
+      <c r="BZ31" s="29"/>
+      <c r="CA31" s="26"/>
+      <c r="CB31" s="28"/>
+      <c r="CC31" s="26"/>
+      <c r="CD31" s="28"/>
+      <c r="CE31" s="29"/>
+      <c r="CF31" s="29"/>
+      <c r="CG31" s="29"/>
+      <c r="CH31" s="29"/>
+      <c r="CI31" s="29"/>
+      <c r="CJ31" s="29"/>
+      <c r="CK31" s="29"/>
+      <c r="CL31" s="29"/>
+      <c r="CM31" s="29"/>
+      <c r="CN31" s="29"/>
+      <c r="CO31" s="29"/>
+      <c r="CP31" s="29"/>
+      <c r="CQ31" s="29"/>
+      <c r="CR31" s="29"/>
+      <c r="CS31" s="29"/>
+      <c r="CT31" s="29"/>
+      <c r="CU31" s="29"/>
+      <c r="CV31" s="29"/>
+      <c r="CW31" s="29"/>
+      <c r="CX31" s="29"/>
+      <c r="CY31" s="29"/>
+      <c r="CZ31" s="29"/>
+      <c r="DA31" s="29"/>
+      <c r="DB31" s="29"/>
+      <c r="DC31" s="29"/>
+      <c r="DD31" s="26"/>
       <c r="DE31" s="12"/>
       <c r="DF31" s="12"/>
       <c r="DG31" s="12"/>
@@ -5817,114 +5937,114 @@
       <c r="EF31" s="12"/>
     </row>
     <row r="32" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
-      <c r="AU32" s="24"/>
-      <c r="AV32" s="24"/>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24"/>
-      <c r="BC32" s="24"/>
-      <c r="BD32" s="24"/>
-      <c r="BE32" s="24"/>
-      <c r="BF32" s="24"/>
-      <c r="BG32" s="24"/>
-      <c r="BH32" s="24"/>
-      <c r="BI32" s="24"/>
-      <c r="BJ32" s="24"/>
-      <c r="BK32" s="24"/>
-      <c r="BL32" s="24"/>
-      <c r="BM32" s="24"/>
-      <c r="BN32" s="24"/>
-      <c r="BO32" s="24"/>
-      <c r="BP32" s="24"/>
-      <c r="BQ32" s="24"/>
-      <c r="BR32" s="24"/>
-      <c r="BS32" s="26"/>
-      <c r="BT32" s="27"/>
-      <c r="BU32" s="27"/>
-      <c r="BV32" s="27"/>
-      <c r="BW32" s="27"/>
-      <c r="BX32" s="27"/>
-      <c r="BY32" s="27"/>
-      <c r="BZ32" s="27"/>
-      <c r="CA32" s="27"/>
-      <c r="CB32" s="27"/>
-      <c r="CC32" s="27"/>
-      <c r="CD32" s="27"/>
-      <c r="CE32" s="27"/>
-      <c r="CF32" s="27"/>
-      <c r="CG32" s="27"/>
-      <c r="CH32" s="27"/>
-      <c r="CI32" s="27"/>
-      <c r="CJ32" s="27"/>
-      <c r="CK32" s="27"/>
-      <c r="CL32" s="27"/>
-      <c r="CM32" s="27"/>
-      <c r="CN32" s="27"/>
-      <c r="CO32" s="27"/>
-      <c r="CP32" s="27"/>
-      <c r="CQ32" s="27"/>
-      <c r="CR32" s="27"/>
-      <c r="CS32" s="27"/>
-      <c r="CT32" s="27"/>
-      <c r="CU32" s="27"/>
-      <c r="CV32" s="27"/>
-      <c r="CW32" s="27"/>
-      <c r="CX32" s="27"/>
-      <c r="CY32" s="27"/>
-      <c r="CZ32" s="27"/>
-      <c r="DA32" s="27"/>
-      <c r="DB32" s="27"/>
-      <c r="DC32" s="27"/>
-      <c r="DD32" s="27"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="43"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="43"/>
+      <c r="BD32" s="43"/>
+      <c r="BE32" s="43"/>
+      <c r="BF32" s="43"/>
+      <c r="BG32" s="43"/>
+      <c r="BH32" s="43"/>
+      <c r="BI32" s="43"/>
+      <c r="BJ32" s="43"/>
+      <c r="BK32" s="43"/>
+      <c r="BL32" s="43"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="43"/>
+      <c r="BO32" s="43"/>
+      <c r="BP32" s="43"/>
+      <c r="BQ32" s="43"/>
+      <c r="BR32" s="44"/>
+      <c r="BS32" s="68"/>
+      <c r="BT32" s="29"/>
+      <c r="BU32" s="26"/>
+      <c r="BV32" s="28"/>
+      <c r="BW32" s="29"/>
+      <c r="BX32" s="29"/>
+      <c r="BY32" s="29"/>
+      <c r="BZ32" s="29"/>
+      <c r="CA32" s="26"/>
+      <c r="CB32" s="28"/>
+      <c r="CC32" s="26"/>
+      <c r="CD32" s="28"/>
+      <c r="CE32" s="29"/>
+      <c r="CF32" s="29"/>
+      <c r="CG32" s="29"/>
+      <c r="CH32" s="29"/>
+      <c r="CI32" s="29"/>
+      <c r="CJ32" s="29"/>
+      <c r="CK32" s="29"/>
+      <c r="CL32" s="29"/>
+      <c r="CM32" s="29"/>
+      <c r="CN32" s="29"/>
+      <c r="CO32" s="29"/>
+      <c r="CP32" s="29"/>
+      <c r="CQ32" s="29"/>
+      <c r="CR32" s="29"/>
+      <c r="CS32" s="29"/>
+      <c r="CT32" s="29"/>
+      <c r="CU32" s="29"/>
+      <c r="CV32" s="29"/>
+      <c r="CW32" s="29"/>
+      <c r="CX32" s="29"/>
+      <c r="CY32" s="29"/>
+      <c r="CZ32" s="29"/>
+      <c r="DA32" s="29"/>
+      <c r="DB32" s="29"/>
+      <c r="DC32" s="29"/>
+      <c r="DD32" s="26"/>
       <c r="DE32" s="12"/>
       <c r="DF32" s="12"/>
       <c r="DG32" s="12"/>
@@ -5955,45 +6075,45 @@
       <c r="EF32" s="12"/>
     </row>
     <row r="33" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="44"/>
       <c r="AN33" s="42"/>
       <c r="AO33" s="43"/>
       <c r="AP33" s="43"/>
@@ -6025,44 +6145,44 @@
       <c r="BP33" s="43"/>
       <c r="BQ33" s="43"/>
       <c r="BR33" s="44"/>
-      <c r="BS33" s="26"/>
-      <c r="BT33" s="27"/>
-      <c r="BU33" s="27"/>
-      <c r="BV33" s="27"/>
-      <c r="BW33" s="27"/>
-      <c r="BX33" s="27"/>
-      <c r="BY33" s="27"/>
-      <c r="BZ33" s="27"/>
-      <c r="CA33" s="27"/>
-      <c r="CB33" s="27"/>
-      <c r="CC33" s="27"/>
-      <c r="CD33" s="27"/>
-      <c r="CE33" s="27"/>
-      <c r="CF33" s="27"/>
-      <c r="CG33" s="27"/>
-      <c r="CH33" s="27"/>
-      <c r="CI33" s="27"/>
-      <c r="CJ33" s="27"/>
-      <c r="CK33" s="27"/>
-      <c r="CL33" s="27"/>
-      <c r="CM33" s="27"/>
-      <c r="CN33" s="27"/>
-      <c r="CO33" s="27"/>
-      <c r="CP33" s="27"/>
-      <c r="CQ33" s="27"/>
-      <c r="CR33" s="27"/>
-      <c r="CS33" s="27"/>
-      <c r="CT33" s="27"/>
-      <c r="CU33" s="27"/>
-      <c r="CV33" s="27"/>
-      <c r="CW33" s="27"/>
-      <c r="CX33" s="27"/>
-      <c r="CY33" s="27"/>
-      <c r="CZ33" s="27"/>
-      <c r="DA33" s="27"/>
-      <c r="DB33" s="27"/>
-      <c r="DC33" s="27"/>
-      <c r="DD33" s="27"/>
+      <c r="BS33" s="68"/>
+      <c r="BT33" s="29"/>
+      <c r="BU33" s="26"/>
+      <c r="BV33" s="28"/>
+      <c r="BW33" s="29"/>
+      <c r="BX33" s="29"/>
+      <c r="BY33" s="29"/>
+      <c r="BZ33" s="29"/>
+      <c r="CA33" s="26"/>
+      <c r="CB33" s="28"/>
+      <c r="CC33" s="26"/>
+      <c r="CD33" s="28"/>
+      <c r="CE33" s="29"/>
+      <c r="CF33" s="29"/>
+      <c r="CG33" s="29"/>
+      <c r="CH33" s="29"/>
+      <c r="CI33" s="29"/>
+      <c r="CJ33" s="29"/>
+      <c r="CK33" s="29"/>
+      <c r="CL33" s="29"/>
+      <c r="CM33" s="29"/>
+      <c r="CN33" s="29"/>
+      <c r="CO33" s="29"/>
+      <c r="CP33" s="29"/>
+      <c r="CQ33" s="29"/>
+      <c r="CR33" s="29"/>
+      <c r="CS33" s="29"/>
+      <c r="CT33" s="29"/>
+      <c r="CU33" s="29"/>
+      <c r="CV33" s="29"/>
+      <c r="CW33" s="29"/>
+      <c r="CX33" s="29"/>
+      <c r="CY33" s="29"/>
+      <c r="CZ33" s="29"/>
+      <c r="DA33" s="29"/>
+      <c r="DB33" s="29"/>
+      <c r="DC33" s="29"/>
+      <c r="DD33" s="26"/>
       <c r="DE33" s="12"/>
       <c r="DF33" s="12"/>
       <c r="DG33" s="12"/>
@@ -6093,45 +6213,45 @@
       <c r="EF33" s="12"/>
     </row>
     <row r="34" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="24"/>
-      <c r="AM34" s="24"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="44"/>
       <c r="AN34" s="42"/>
       <c r="AO34" s="43"/>
       <c r="AP34" s="43"/>
@@ -6163,44 +6283,44 @@
       <c r="BP34" s="43"/>
       <c r="BQ34" s="43"/>
       <c r="BR34" s="44"/>
-      <c r="BS34" s="26"/>
-      <c r="BT34" s="27"/>
-      <c r="BU34" s="27"/>
-      <c r="BV34" s="27"/>
-      <c r="BW34" s="27"/>
-      <c r="BX34" s="27"/>
-      <c r="BY34" s="27"/>
-      <c r="BZ34" s="27"/>
-      <c r="CA34" s="27"/>
-      <c r="CB34" s="27"/>
-      <c r="CC34" s="27"/>
-      <c r="CD34" s="27"/>
-      <c r="CE34" s="27"/>
-      <c r="CF34" s="27"/>
-      <c r="CG34" s="27"/>
-      <c r="CH34" s="27"/>
-      <c r="CI34" s="27"/>
-      <c r="CJ34" s="27"/>
-      <c r="CK34" s="27"/>
-      <c r="CL34" s="27"/>
-      <c r="CM34" s="27"/>
-      <c r="CN34" s="27"/>
-      <c r="CO34" s="27"/>
-      <c r="CP34" s="27"/>
-      <c r="CQ34" s="27"/>
-      <c r="CR34" s="27"/>
-      <c r="CS34" s="27"/>
-      <c r="CT34" s="27"/>
-      <c r="CU34" s="27"/>
-      <c r="CV34" s="27"/>
-      <c r="CW34" s="27"/>
-      <c r="CX34" s="27"/>
-      <c r="CY34" s="27"/>
-      <c r="CZ34" s="27"/>
-      <c r="DA34" s="27"/>
-      <c r="DB34" s="27"/>
-      <c r="DC34" s="27"/>
-      <c r="DD34" s="27"/>
+      <c r="BS34" s="68"/>
+      <c r="BT34" s="29"/>
+      <c r="BU34" s="26"/>
+      <c r="BV34" s="28"/>
+      <c r="BW34" s="29"/>
+      <c r="BX34" s="29"/>
+      <c r="BY34" s="29"/>
+      <c r="BZ34" s="29"/>
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="28"/>
+      <c r="CC34" s="26"/>
+      <c r="CD34" s="28"/>
+      <c r="CE34" s="29"/>
+      <c r="CF34" s="29"/>
+      <c r="CG34" s="29"/>
+      <c r="CH34" s="29"/>
+      <c r="CI34" s="29"/>
+      <c r="CJ34" s="29"/>
+      <c r="CK34" s="29"/>
+      <c r="CL34" s="29"/>
+      <c r="CM34" s="29"/>
+      <c r="CN34" s="29"/>
+      <c r="CO34" s="29"/>
+      <c r="CP34" s="29"/>
+      <c r="CQ34" s="29"/>
+      <c r="CR34" s="29"/>
+      <c r="CS34" s="29"/>
+      <c r="CT34" s="29"/>
+      <c r="CU34" s="29"/>
+      <c r="CV34" s="29"/>
+      <c r="CW34" s="29"/>
+      <c r="CX34" s="29"/>
+      <c r="CY34" s="29"/>
+      <c r="CZ34" s="29"/>
+      <c r="DA34" s="29"/>
+      <c r="DB34" s="29"/>
+      <c r="DC34" s="29"/>
+      <c r="DD34" s="26"/>
       <c r="DE34" s="12"/>
       <c r="DF34" s="12"/>
       <c r="DG34" s="12"/>
@@ -6231,114 +6351,114 @@
       <c r="EF34" s="12"/>
     </row>
     <row r="35" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="24"/>
-      <c r="AL35" s="24"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="24"/>
-      <c r="AT35" s="24"/>
-      <c r="AU35" s="24"/>
-      <c r="AV35" s="24"/>
-      <c r="AW35" s="24"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="24"/>
-      <c r="BB35" s="24"/>
-      <c r="BC35" s="24"/>
-      <c r="BD35" s="24"/>
-      <c r="BE35" s="24"/>
-      <c r="BF35" s="24"/>
-      <c r="BG35" s="24"/>
-      <c r="BH35" s="24"/>
-      <c r="BI35" s="24"/>
-      <c r="BJ35" s="24"/>
-      <c r="BK35" s="24"/>
-      <c r="BL35" s="24"/>
-      <c r="BM35" s="24"/>
-      <c r="BN35" s="24"/>
-      <c r="BO35" s="24"/>
-      <c r="BP35" s="24"/>
-      <c r="BQ35" s="24"/>
-      <c r="BR35" s="24"/>
-      <c r="BS35" s="26"/>
-      <c r="BT35" s="27"/>
-      <c r="BU35" s="27"/>
-      <c r="BV35" s="27"/>
-      <c r="BW35" s="27"/>
-      <c r="BX35" s="27"/>
-      <c r="BY35" s="27"/>
-      <c r="BZ35" s="27"/>
-      <c r="CA35" s="27"/>
-      <c r="CB35" s="27"/>
-      <c r="CC35" s="27"/>
-      <c r="CD35" s="27"/>
-      <c r="CE35" s="27"/>
-      <c r="CF35" s="27"/>
-      <c r="CG35" s="27"/>
-      <c r="CH35" s="27"/>
-      <c r="CI35" s="27"/>
-      <c r="CJ35" s="27"/>
-      <c r="CK35" s="27"/>
-      <c r="CL35" s="27"/>
-      <c r="CM35" s="27"/>
-      <c r="CN35" s="27"/>
-      <c r="CO35" s="27"/>
-      <c r="CP35" s="27"/>
-      <c r="CQ35" s="27"/>
-      <c r="CR35" s="27"/>
-      <c r="CS35" s="27"/>
-      <c r="CT35" s="27"/>
-      <c r="CU35" s="27"/>
-      <c r="CV35" s="27"/>
-      <c r="CW35" s="27"/>
-      <c r="CX35" s="27"/>
-      <c r="CY35" s="27"/>
-      <c r="CZ35" s="27"/>
-      <c r="DA35" s="27"/>
-      <c r="DB35" s="27"/>
-      <c r="DC35" s="27"/>
-      <c r="DD35" s="27"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="43"/>
+      <c r="BD35" s="43"/>
+      <c r="BE35" s="43"/>
+      <c r="BF35" s="43"/>
+      <c r="BG35" s="43"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="43"/>
+      <c r="BJ35" s="43"/>
+      <c r="BK35" s="43"/>
+      <c r="BL35" s="43"/>
+      <c r="BM35" s="43"/>
+      <c r="BN35" s="43"/>
+      <c r="BO35" s="43"/>
+      <c r="BP35" s="43"/>
+      <c r="BQ35" s="43"/>
+      <c r="BR35" s="44"/>
+      <c r="BS35" s="68"/>
+      <c r="BT35" s="29"/>
+      <c r="BU35" s="26"/>
+      <c r="BV35" s="28"/>
+      <c r="BW35" s="29"/>
+      <c r="BX35" s="29"/>
+      <c r="BY35" s="29"/>
+      <c r="BZ35" s="29"/>
+      <c r="CA35" s="26"/>
+      <c r="CB35" s="28"/>
+      <c r="CC35" s="26"/>
+      <c r="CD35" s="28"/>
+      <c r="CE35" s="29"/>
+      <c r="CF35" s="29"/>
+      <c r="CG35" s="29"/>
+      <c r="CH35" s="29"/>
+      <c r="CI35" s="29"/>
+      <c r="CJ35" s="29"/>
+      <c r="CK35" s="29"/>
+      <c r="CL35" s="29"/>
+      <c r="CM35" s="29"/>
+      <c r="CN35" s="29"/>
+      <c r="CO35" s="29"/>
+      <c r="CP35" s="29"/>
+      <c r="CQ35" s="29"/>
+      <c r="CR35" s="29"/>
+      <c r="CS35" s="29"/>
+      <c r="CT35" s="29"/>
+      <c r="CU35" s="29"/>
+      <c r="CV35" s="29"/>
+      <c r="CW35" s="29"/>
+      <c r="CX35" s="29"/>
+      <c r="CY35" s="29"/>
+      <c r="CZ35" s="29"/>
+      <c r="DA35" s="29"/>
+      <c r="DB35" s="29"/>
+      <c r="DC35" s="29"/>
+      <c r="DD35" s="26"/>
       <c r="DE35" s="12"/>
       <c r="DF35" s="12"/>
       <c r="DG35" s="12"/>
@@ -6373,110 +6493,110 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="27"/>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="27"/>
-      <c r="AS36" s="27"/>
-      <c r="AT36" s="27"/>
-      <c r="AU36" s="27"/>
-      <c r="AV36" s="27"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="27"/>
-      <c r="AY36" s="27"/>
-      <c r="AZ36" s="27"/>
-      <c r="BA36" s="27"/>
-      <c r="BB36" s="27"/>
-      <c r="BC36" s="27"/>
-      <c r="BD36" s="27"/>
-      <c r="BE36" s="27"/>
-      <c r="BF36" s="27"/>
-      <c r="BG36" s="27"/>
-      <c r="BH36" s="27"/>
-      <c r="BI36" s="27"/>
-      <c r="BJ36" s="27"/>
-      <c r="BK36" s="27"/>
-      <c r="BL36" s="27"/>
-      <c r="BM36" s="27"/>
-      <c r="BN36" s="27"/>
-      <c r="BO36" s="27"/>
-      <c r="BP36" s="27"/>
-      <c r="BQ36" s="27"/>
-      <c r="BR36" s="27"/>
-      <c r="BS36" s="27"/>
-      <c r="BT36" s="27"/>
-      <c r="BU36" s="27"/>
-      <c r="BV36" s="27"/>
-      <c r="BW36" s="27"/>
-      <c r="BX36" s="27"/>
-      <c r="BY36" s="27"/>
-      <c r="BZ36" s="27"/>
-      <c r="CA36" s="27"/>
-      <c r="CB36" s="27"/>
-      <c r="CC36" s="27"/>
-      <c r="CD36" s="27"/>
-      <c r="CE36" s="27"/>
-      <c r="CF36" s="27"/>
-      <c r="CG36" s="27"/>
-      <c r="CH36" s="27"/>
-      <c r="CI36" s="27"/>
-      <c r="CJ36" s="27"/>
-      <c r="CK36" s="27"/>
-      <c r="CL36" s="27"/>
-      <c r="CM36" s="27"/>
-      <c r="CN36" s="27"/>
-      <c r="CO36" s="27"/>
-      <c r="CP36" s="27"/>
-      <c r="CQ36" s="27"/>
-      <c r="CR36" s="27"/>
-      <c r="CS36" s="27"/>
-      <c r="CT36" s="27"/>
-      <c r="CU36" s="27"/>
-      <c r="CV36" s="27"/>
-      <c r="CW36" s="27"/>
-      <c r="CX36" s="27"/>
-      <c r="CY36" s="27"/>
-      <c r="CZ36" s="27"/>
-      <c r="DA36" s="27"/>
-      <c r="DB36" s="27"/>
-      <c r="DC36" s="27"/>
-      <c r="DD36" s="27"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="55"/>
+      <c r="AS36" s="55"/>
+      <c r="AT36" s="55"/>
+      <c r="AU36" s="55"/>
+      <c r="AV36" s="55"/>
+      <c r="AW36" s="55"/>
+      <c r="AX36" s="55"/>
+      <c r="AY36" s="55"/>
+      <c r="AZ36" s="55"/>
+      <c r="BA36" s="55"/>
+      <c r="BB36" s="55"/>
+      <c r="BC36" s="55"/>
+      <c r="BD36" s="55"/>
+      <c r="BE36" s="55"/>
+      <c r="BF36" s="55"/>
+      <c r="BG36" s="55"/>
+      <c r="BH36" s="55"/>
+      <c r="BI36" s="55"/>
+      <c r="BJ36" s="55"/>
+      <c r="BK36" s="55"/>
+      <c r="BL36" s="55"/>
+      <c r="BM36" s="55"/>
+      <c r="BN36" s="55"/>
+      <c r="BO36" s="55"/>
+      <c r="BP36" s="55"/>
+      <c r="BQ36" s="55"/>
+      <c r="BR36" s="56"/>
+      <c r="BS36" s="28"/>
+      <c r="BT36" s="29"/>
+      <c r="BU36" s="26"/>
+      <c r="BV36" s="28"/>
+      <c r="BW36" s="29"/>
+      <c r="BX36" s="29"/>
+      <c r="BY36" s="29"/>
+      <c r="BZ36" s="29"/>
+      <c r="CA36" s="26"/>
+      <c r="CB36" s="28"/>
+      <c r="CC36" s="26"/>
+      <c r="CD36" s="28"/>
+      <c r="CE36" s="29"/>
+      <c r="CF36" s="29"/>
+      <c r="CG36" s="29"/>
+      <c r="CH36" s="29"/>
+      <c r="CI36" s="29"/>
+      <c r="CJ36" s="29"/>
+      <c r="CK36" s="29"/>
+      <c r="CL36" s="29"/>
+      <c r="CM36" s="29"/>
+      <c r="CN36" s="29"/>
+      <c r="CO36" s="29"/>
+      <c r="CP36" s="29"/>
+      <c r="CQ36" s="29"/>
+      <c r="CR36" s="29"/>
+      <c r="CS36" s="29"/>
+      <c r="CT36" s="29"/>
+      <c r="CU36" s="29"/>
+      <c r="CV36" s="29"/>
+      <c r="CW36" s="29"/>
+      <c r="CX36" s="29"/>
+      <c r="CY36" s="29"/>
+      <c r="CZ36" s="29"/>
+      <c r="DA36" s="29"/>
+      <c r="DB36" s="29"/>
+      <c r="DC36" s="29"/>
+      <c r="DD36" s="26"/>
       <c r="DE36" s="12"/>
       <c r="DF36" s="12"/>
       <c r="DG36" s="12"/>
@@ -6577,44 +6697,44 @@
       <c r="BP37" s="29"/>
       <c r="BQ37" s="29"/>
       <c r="BR37" s="26"/>
-      <c r="BS37" s="27"/>
-      <c r="BT37" s="27"/>
-      <c r="BU37" s="27"/>
-      <c r="BV37" s="27"/>
-      <c r="BW37" s="27"/>
-      <c r="BX37" s="27"/>
-      <c r="BY37" s="27"/>
-      <c r="BZ37" s="27"/>
-      <c r="CA37" s="27"/>
-      <c r="CB37" s="27"/>
-      <c r="CC37" s="27"/>
-      <c r="CD37" s="27"/>
-      <c r="CE37" s="27"/>
-      <c r="CF37" s="27"/>
-      <c r="CG37" s="27"/>
-      <c r="CH37" s="27"/>
-      <c r="CI37" s="27"/>
-      <c r="CJ37" s="27"/>
-      <c r="CK37" s="27"/>
-      <c r="CL37" s="27"/>
-      <c r="CM37" s="27"/>
-      <c r="CN37" s="27"/>
-      <c r="CO37" s="27"/>
-      <c r="CP37" s="27"/>
-      <c r="CQ37" s="27"/>
-      <c r="CR37" s="27"/>
-      <c r="CS37" s="27"/>
-      <c r="CT37" s="27"/>
-      <c r="CU37" s="27"/>
-      <c r="CV37" s="27"/>
-      <c r="CW37" s="27"/>
-      <c r="CX37" s="27"/>
-      <c r="CY37" s="27"/>
-      <c r="CZ37" s="27"/>
-      <c r="DA37" s="27"/>
-      <c r="DB37" s="27"/>
-      <c r="DC37" s="27"/>
-      <c r="DD37" s="27"/>
+      <c r="BS37" s="28"/>
+      <c r="BT37" s="29"/>
+      <c r="BU37" s="26"/>
+      <c r="BV37" s="28"/>
+      <c r="BW37" s="29"/>
+      <c r="BX37" s="29"/>
+      <c r="BY37" s="29"/>
+      <c r="BZ37" s="29"/>
+      <c r="CA37" s="26"/>
+      <c r="CB37" s="28"/>
+      <c r="CC37" s="26"/>
+      <c r="CD37" s="28"/>
+      <c r="CE37" s="29"/>
+      <c r="CF37" s="29"/>
+      <c r="CG37" s="29"/>
+      <c r="CH37" s="29"/>
+      <c r="CI37" s="29"/>
+      <c r="CJ37" s="29"/>
+      <c r="CK37" s="29"/>
+      <c r="CL37" s="29"/>
+      <c r="CM37" s="29"/>
+      <c r="CN37" s="29"/>
+      <c r="CO37" s="29"/>
+      <c r="CP37" s="29"/>
+      <c r="CQ37" s="29"/>
+      <c r="CR37" s="29"/>
+      <c r="CS37" s="29"/>
+      <c r="CT37" s="29"/>
+      <c r="CU37" s="29"/>
+      <c r="CV37" s="29"/>
+      <c r="CW37" s="29"/>
+      <c r="CX37" s="29"/>
+      <c r="CY37" s="29"/>
+      <c r="CZ37" s="29"/>
+      <c r="DA37" s="29"/>
+      <c r="DB37" s="29"/>
+      <c r="DC37" s="29"/>
+      <c r="DD37" s="26"/>
       <c r="DE37" s="12"/>
       <c r="DF37" s="12"/>
       <c r="DG37" s="12"/>
@@ -7611,14 +7731,14 @@
       <c r="EF44" s="12"/>
     </row>
     <row r="45" spans="1:136" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -7753,9 +7873,9 @@
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="26"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="36"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -7891,72 +8011,72 @@
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="48"/>
-      <c r="AI47" s="48"/>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="48"/>
-      <c r="AO47" s="48"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="48"/>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="48"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="48"/>
-      <c r="AZ47" s="48"/>
-      <c r="BA47" s="48"/>
-      <c r="BB47" s="48"/>
-      <c r="BC47" s="48"/>
-      <c r="BD47" s="48"/>
-      <c r="BE47" s="48"/>
-      <c r="BF47" s="48"/>
-      <c r="BG47" s="48"/>
-      <c r="BH47" s="48"/>
-      <c r="BI47" s="48"/>
-      <c r="BJ47" s="48"/>
-      <c r="BK47" s="48"/>
-      <c r="BL47" s="48"/>
-      <c r="BM47" s="48"/>
-      <c r="BN47" s="48"/>
-      <c r="BO47" s="48"/>
-      <c r="BP47" s="48"/>
-      <c r="BQ47" s="48"/>
-      <c r="BR47" s="48"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="51"/>
+      <c r="BA47" s="51"/>
+      <c r="BB47" s="51"/>
+      <c r="BC47" s="51"/>
+      <c r="BD47" s="51"/>
+      <c r="BE47" s="51"/>
+      <c r="BF47" s="51"/>
+      <c r="BG47" s="51"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="51"/>
+      <c r="BJ47" s="51"/>
+      <c r="BK47" s="51"/>
+      <c r="BL47" s="51"/>
+      <c r="BM47" s="51"/>
+      <c r="BN47" s="51"/>
+      <c r="BO47" s="51"/>
+      <c r="BP47" s="51"/>
+      <c r="BQ47" s="51"/>
+      <c r="BR47" s="51"/>
       <c r="BS47" s="27"/>
       <c r="BT47" s="27"/>
       <c r="BU47" s="27"/>
@@ -8029,10 +8149,10 @@
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
       <c r="I48" s="27"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
@@ -8167,10 +8287,10 @@
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="27"/>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -8305,10 +8425,10 @@
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
       <c r="K50" s="27"/>
@@ -8443,10 +8563,10 @@
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="27"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
@@ -8581,10 +8701,10 @@
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
       <c r="D52" s="26"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="27"/>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
@@ -8719,10 +8839,10 @@
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
@@ -8857,10 +8977,10 @@
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
@@ -8995,10 +9115,10 @@
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
       <c r="D55" s="26"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
@@ -9133,10 +9253,10 @@
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="26"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
@@ -9271,10 +9391,10 @@
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
@@ -9409,10 +9529,10 @@
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
@@ -9547,10 +9667,10 @@
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
@@ -9685,10 +9805,10 @@
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
@@ -9823,10 +9943,10 @@
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
       <c r="K61" s="27"/>
@@ -9961,10 +10081,10 @@
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
       <c r="I62" s="27"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27"/>
@@ -10099,10 +10219,10 @@
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="27"/>
       <c r="J63" s="27"/>
       <c r="K63" s="27"/>
@@ -10237,10 +10357,10 @@
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="27"/>
       <c r="J64" s="27"/>
       <c r="K64" s="27"/>
@@ -10375,10 +10495,10 @@
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="27"/>
       <c r="J65" s="27"/>
       <c r="K65" s="27"/>
@@ -10513,10 +10633,10 @@
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
       <c r="K66" s="27"/>
@@ -10651,10 +10771,10 @@
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="26"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="27"/>
       <c r="J67" s="27"/>
       <c r="K67" s="27"/>
@@ -10789,10 +10909,10 @@
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="27"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
@@ -10927,10 +11047,10 @@
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="26"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="27"/>
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
@@ -11065,10 +11185,10 @@
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="26"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="27"/>
       <c r="J70" s="27"/>
       <c r="K70" s="27"/>
@@ -11203,10 +11323,10 @@
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="26"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="27"/>
       <c r="J71" s="27"/>
       <c r="K71" s="27"/>
@@ -11341,10 +11461,10 @@
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
       <c r="I72" s="27"/>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -11479,10 +11599,10 @@
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="26"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="27"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
@@ -11617,10 +11737,10 @@
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="26"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="27"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
@@ -11755,10 +11875,10 @@
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="26"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
       <c r="I75" s="27"/>
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
@@ -11893,10 +12013,10 @@
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="26"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="27"/>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
@@ -12031,10 +12151,10 @@
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="26"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
       <c r="I77" s="27"/>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
@@ -12169,10 +12289,10 @@
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="26"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
@@ -12307,10 +12427,10 @@
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="26"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="27"/>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
@@ -12445,10 +12565,10 @@
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="26"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="47"/>
-      <c r="H80" s="47"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
       <c r="I80" s="27"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
@@ -12583,10 +12703,10 @@
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="26"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
       <c r="I81" s="27"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
@@ -12721,10 +12841,10 @@
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
       <c r="D82" s="26"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
       <c r="I82" s="27"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
@@ -12859,10 +12979,10 @@
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
       <c r="D83" s="26"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
       <c r="I83" s="27"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
@@ -12997,10 +13117,10 @@
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
       <c r="D84" s="26"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
       <c r="I84" s="27"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
@@ -13135,10 +13255,10 @@
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
       <c r="D85" s="26"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
       <c r="I85" s="27"/>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
@@ -13273,10 +13393,10 @@
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
       <c r="D86" s="26"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
       <c r="I86" s="27"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
@@ -13411,10 +13531,10 @@
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="26"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
       <c r="I87" s="27"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
@@ -13549,10 +13669,10 @@
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="26"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
       <c r="I88" s="27"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
@@ -13687,10 +13807,10 @@
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="26"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
       <c r="I89" s="27"/>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
@@ -13825,10 +13945,10 @@
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="26"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
       <c r="I90" s="27"/>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
@@ -13963,10 +14083,10 @@
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="26"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
@@ -14101,10 +14221,10 @@
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="26"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
       <c r="I92" s="27"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
@@ -14239,10 +14359,10 @@
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="26"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
       <c r="I93" s="27"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
@@ -14377,10 +14497,10 @@
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
       <c r="D94" s="26"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
       <c r="I94" s="27"/>
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
@@ -14515,10 +14635,10 @@
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="26"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
       <c r="I95" s="27"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
@@ -14653,10 +14773,10 @@
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
       <c r="D96" s="26"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
       <c r="I96" s="27"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
@@ -14791,10 +14911,10 @@
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="26"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
       <c r="I97" s="27"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
@@ -14929,10 +15049,10 @@
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="26"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
       <c r="I98" s="27"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
@@ -15067,10 +15187,10 @@
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
       <c r="D99" s="26"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
       <c r="I99" s="27"/>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
@@ -15205,10 +15325,10 @@
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
       <c r="D100" s="26"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
       <c r="I100" s="27"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27"/>
@@ -15343,10 +15463,10 @@
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
       <c r="D101" s="26"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
       <c r="I101" s="27"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
@@ -15481,10 +15601,10 @@
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
       <c r="D102" s="26"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
       <c r="I102" s="27"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
@@ -15619,10 +15739,10 @@
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
       <c r="D103" s="26"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50"/>
       <c r="I103" s="27"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
@@ -15757,10 +15877,10 @@
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
       <c r="D104" s="26"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
       <c r="I104" s="27"/>
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
@@ -15895,10 +16015,10 @@
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
       <c r="D105" s="26"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
       <c r="I105" s="27"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
@@ -16033,10 +16153,10 @@
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
       <c r="D106" s="26"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
       <c r="I106" s="27"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
@@ -16171,10 +16291,10 @@
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
       <c r="D107" s="26"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
       <c r="I107" s="27"/>
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
@@ -16309,10 +16429,10 @@
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
       <c r="D108" s="26"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
       <c r="I108" s="27"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
@@ -16447,10 +16567,10 @@
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
       <c r="D109" s="26"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
       <c r="I109" s="27"/>
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
@@ -16585,10 +16705,10 @@
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
       <c r="D110" s="26"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
       <c r="I110" s="27"/>
       <c r="J110" s="27"/>
       <c r="K110" s="27"/>
@@ -16723,10 +16843,10 @@
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
       <c r="D111" s="26"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
       <c r="I111" s="27"/>
       <c r="J111" s="27"/>
       <c r="K111" s="27"/>
@@ -16861,10 +16981,10 @@
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
       <c r="I112" s="27"/>
       <c r="J112" s="27"/>
       <c r="K112" s="27"/>
@@ -16999,10 +17119,10 @@
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
       <c r="D113" s="26"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
       <c r="I113" s="27"/>
       <c r="J113" s="27"/>
       <c r="K113" s="27"/>
@@ -17137,10 +17257,10 @@
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
       <c r="D114" s="26"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
       <c r="I114" s="27"/>
       <c r="J114" s="27"/>
       <c r="K114" s="27"/>
@@ -17275,10 +17395,10 @@
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
       <c r="D115" s="26"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="50"/>
       <c r="I115" s="27"/>
       <c r="J115" s="27"/>
       <c r="K115" s="27"/>
@@ -17413,10 +17533,10 @@
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
       <c r="D116" s="26"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="50"/>
       <c r="I116" s="27"/>
       <c r="J116" s="27"/>
       <c r="K116" s="27"/>
@@ -17551,10 +17671,10 @@
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
       <c r="D117" s="26"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
       <c r="I117" s="27"/>
       <c r="J117" s="27"/>
       <c r="K117" s="27"/>
@@ -17689,10 +17809,10 @@
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
       <c r="D118" s="26"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
       <c r="I118" s="27"/>
       <c r="J118" s="27"/>
       <c r="K118" s="27"/>
@@ -35242,6 +35362,34 @@
     </row>
   </sheetData>
   <mergeCells count="897">
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="CD27:DD27"/>
+    <mergeCell ref="CB27:CC27"/>
+    <mergeCell ref="BV27:CA27"/>
+    <mergeCell ref="CD35:DD35"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CB30:CC30"/>
+    <mergeCell ref="AN30:BR30"/>
+    <mergeCell ref="CB33:CC33"/>
+    <mergeCell ref="BV33:CA33"/>
+    <mergeCell ref="BS33:BU33"/>
+    <mergeCell ref="I33:AM33"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:AM35"/>
+    <mergeCell ref="AN35:BR35"/>
+    <mergeCell ref="BV35:CA35"/>
+    <mergeCell ref="BS35:BU35"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="BV26:CA26"/>
+    <mergeCell ref="BS26:BU26"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="BV29:CA29"/>
+    <mergeCell ref="BS27:BU27"/>
+    <mergeCell ref="AN27:BR27"/>
+    <mergeCell ref="I27:AM27"/>
     <mergeCell ref="CD32:DD32"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="E20:H20"/>
@@ -35259,6 +35407,13 @@
     <mergeCell ref="CB22:CC22"/>
     <mergeCell ref="CD22:DD22"/>
     <mergeCell ref="BV23:CA23"/>
+    <mergeCell ref="CD23:DD23"/>
+    <mergeCell ref="CB24:CC24"/>
+    <mergeCell ref="CD24:DD24"/>
+    <mergeCell ref="BV25:CA25"/>
+    <mergeCell ref="CB25:CC25"/>
+    <mergeCell ref="CD25:DD25"/>
+    <mergeCell ref="BV24:CA24"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A32:D32"/>
@@ -35268,6 +35423,7 @@
     <mergeCell ref="BS32:BU32"/>
     <mergeCell ref="BV32:CA32"/>
     <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="A37:D37"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="I40:AM40"/>
     <mergeCell ref="AN40:BR40"/>
@@ -35301,15 +35457,6 @@
     <mergeCell ref="CD42:DD42"/>
     <mergeCell ref="BV43:CA43"/>
     <mergeCell ref="CB43:CC43"/>
-    <mergeCell ref="CD23:DD23"/>
-    <mergeCell ref="CB24:CC24"/>
-    <mergeCell ref="CD24:DD24"/>
-    <mergeCell ref="BV25:CA25"/>
-    <mergeCell ref="CB25:CC25"/>
-    <mergeCell ref="CD25:DD25"/>
-    <mergeCell ref="BV24:CA24"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CD26:DD26"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:AM13"/>
@@ -35331,7 +35478,6 @@
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="BV17:CA17"/>
     <mergeCell ref="CB17:CC17"/>
     <mergeCell ref="CD17:DD17"/>
     <mergeCell ref="A14:D14"/>
@@ -35350,6 +35496,7 @@
     <mergeCell ref="BV15:CA15"/>
     <mergeCell ref="CB15:CC15"/>
     <mergeCell ref="CD15:DD15"/>
+    <mergeCell ref="BV17:CA17"/>
     <mergeCell ref="BS18:BU18"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:H9"/>
@@ -35368,6 +35515,12 @@
     <mergeCell ref="CB11:CC11"/>
     <mergeCell ref="CD11:DD11"/>
     <mergeCell ref="CD10:DD10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AM12"/>
+    <mergeCell ref="AN12:BR12"/>
+    <mergeCell ref="BS12:BU12"/>
+    <mergeCell ref="BV12:CA12"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:H10"/>
@@ -35392,12 +35545,6 @@
     <mergeCell ref="BV7:CA7"/>
     <mergeCell ref="BV10:CA10"/>
     <mergeCell ref="CB10:CC10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AM12"/>
-    <mergeCell ref="AN12:BR12"/>
-    <mergeCell ref="BS12:BU12"/>
-    <mergeCell ref="BV12:CA12"/>
     <mergeCell ref="CB12:CC12"/>
     <mergeCell ref="CD12:DD12"/>
     <mergeCell ref="BS19:BU19"/>
@@ -35416,16 +35563,20 @@
     <mergeCell ref="CB13:CC13"/>
     <mergeCell ref="CD13:DD13"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="CD27:DD27"/>
-    <mergeCell ref="BS26:BU26"/>
-    <mergeCell ref="BV26:CA26"/>
+    <mergeCell ref="BV18:CA18"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:DD18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AM18"/>
+    <mergeCell ref="CD26:DD26"/>
     <mergeCell ref="AN28:BR28"/>
     <mergeCell ref="I28:AM28"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="AN27:BR27"/>
-    <mergeCell ref="I27:AM27"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="AN26:BR26"/>
+    <mergeCell ref="I26:AM26"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="CB28:CC28"/>
     <mergeCell ref="CD28:DD28"/>
     <mergeCell ref="BS29:BU29"/>
@@ -35466,14 +35617,10 @@
     <mergeCell ref="CD47:DD47"/>
     <mergeCell ref="BS46:BU46"/>
     <mergeCell ref="BV46:CA46"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:DD35"/>
     <mergeCell ref="BS45:BU45"/>
     <mergeCell ref="BV45:CA45"/>
     <mergeCell ref="CB45:CC45"/>
     <mergeCell ref="CD45:DD45"/>
-    <mergeCell ref="BS35:BU35"/>
-    <mergeCell ref="BV35:CA35"/>
     <mergeCell ref="CB39:CC39"/>
     <mergeCell ref="CD39:DD39"/>
     <mergeCell ref="BS40:BU40"/>
@@ -36060,7 +36207,6 @@
     <mergeCell ref="I47:AM47"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="AN35:BR35"/>
     <mergeCell ref="I45:AM45"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="A45:D45"/>
@@ -36068,17 +36214,10 @@
     <mergeCell ref="AN45:BR45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I35:AM35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="I39:AM39"/>
     <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="BV18:CA18"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:DD18"/>
     <mergeCell ref="BS21:BU21"/>
     <mergeCell ref="BV21:CA21"/>
     <mergeCell ref="CB21:CC21"/>
@@ -36090,15 +36229,10 @@
     <mergeCell ref="AN21:BR21"/>
     <mergeCell ref="I21:AM21"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AM18"/>
     <mergeCell ref="AN18:BR18"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="E25:H25"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
     <mergeCell ref="I37:AM37"/>
     <mergeCell ref="AN37:BR37"/>
     <mergeCell ref="A38:D38"/>
@@ -36117,24 +36251,10 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="AN36:BR36"/>
-    <mergeCell ref="A37:D37"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="I23:AM23"/>
-    <mergeCell ref="I33:AM33"/>
-    <mergeCell ref="BS33:BU33"/>
-    <mergeCell ref="BV33:CA33"/>
-    <mergeCell ref="CB33:CC33"/>
-    <mergeCell ref="AN30:BR30"/>
-    <mergeCell ref="CB30:CC30"/>
     <mergeCell ref="AN25:BR25"/>
-    <mergeCell ref="AN26:BR26"/>
-    <mergeCell ref="BV29:CA29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="BS27:BU27"/>
-    <mergeCell ref="BV27:CA27"/>
-    <mergeCell ref="CB27:CC27"/>
     <mergeCell ref="I25:AM25"/>
-    <mergeCell ref="I26:AM26"/>
     <mergeCell ref="BS25:BU25"/>
     <mergeCell ref="BS24:BU24"/>
     <mergeCell ref="AN23:BR23"/>
